--- a/bh3/545820352543255137_2021-07-10_21-01-44.xlsx
+++ b/bh3/545820352543255137_2021-07-10_21-01-44.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4895547599</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:40:43</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44389.81994212963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -629,10 +643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:07:06</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44389.71326388889</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -696,10 +708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:06:40</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44389.71296296296</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -763,10 +773,8 @@
           <t>4893767134</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:52:22</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44389.61969907407</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -870,10 +878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:32:56</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44389.6062037037</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -949,10 +955,8 @@
           <t>4887555218</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:37:18</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44389.35923611111</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1020,10 +1024,8 @@
           <t>4887555218</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:36:03</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44389.35836805555</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1091,10 +1093,8 @@
           <t>4887555218</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:33:57</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44389.35690972222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1162,10 +1162,8 @@
           <t>4887555218</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-12 08:27:27</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44389.35239583333</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1233,10 +1231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-11 23:52:02</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44388.99446759259</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1296,10 +1292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:53:04</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44388.82851851852</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1367,10 +1361,8 @@
           <t>4888142784</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 19:17:58</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.80414351852</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1447,10 +1439,8 @@
           <t>4888142784</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:31:15</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.77170138889</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1526,10 +1516,8 @@
           <t>4888142784</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 18:18:54</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.763125</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1606,10 +1594,8 @@
           <t>4887719404</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-11 17:13:24</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44388.71763888889</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1685,10 +1671,8 @@
           <t>4887555218</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:43:29</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44388.69686342592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1756,10 +1740,8 @@
           <t>4887152456</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:33:02</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44388.68960648148</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1835,10 +1817,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-11 16:22:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44388.68256944444</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1914,10 +1894,8 @@
           <t>4887152456</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-11 15:28:36</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44388.64486111111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1981,10 +1959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-11 14:58:26</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44388.62391203704</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2060,10 +2036,8 @@
           <t>4886622470</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-11 13:48:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44388.5756712963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2127,10 +2101,8 @@
           <t>4886616632</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-11 13:48:25</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44388.57528935185</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2194,10 +2166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-11 13:47:36</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44388.57472222222</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2261,10 +2231,8 @@
           <t>4886050288</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:20:50</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44388.51446759259</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2336,10 +2304,8 @@
           <t>4885885888</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:55:32</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44388.49689814815</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2411,10 +2377,8 @@
           <t>4885863632</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:54:06</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44388.49590277778</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2486,10 +2450,8 @@
           <t>4885862248</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:53:26</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44388.49543981482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2561,10 +2523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:46:10</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44388.49039351852</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2628,10 +2588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:20:01</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44388.4722337963</v>
       </c>
       <c r="I30" t="n">
         <v>6</v>
@@ -2699,10 +2657,8 @@
           <t>4885653975</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:18:44</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44388.47134259259</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2770,10 +2726,8 @@
           <t>4885637730</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-11 11:15:29</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44388.46908564815</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2845,10 +2799,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:47:33</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44388.4496875</v>
       </c>
       <c r="I33" t="n">
         <v>13</v>
@@ -2920,10 +2872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:44:22</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44388.44747685185</v>
       </c>
       <c r="I34" t="n">
         <v>5</v>
@@ -2987,10 +2937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:18:19</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44388.42938657408</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3050,10 +2998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:18:11</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44388.42929398148</v>
       </c>
       <c r="I36" t="n">
         <v>3</v>
@@ -3114,10 +3060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:18:06</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44388.42923611111</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
@@ -3200,10 +3144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:17:56</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44388.42912037037</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3268,10 +3210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:17:50</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44388.42905092592</v>
       </c>
       <c r="I39" t="n">
         <v>2</v>
@@ -3352,10 +3292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:17:09</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44388.42857638889</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
@@ -3444,10 +3382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:17:02</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44388.42849537037</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3518,10 +3454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:16:55</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44388.42841435185</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3581,10 +3515,8 @@
           <t>4884039941</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:11:59</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44388.42498842593</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3656,10 +3588,8 @@
           <t>4885188895</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:55:39</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44388.41364583333</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3735,10 +3665,8 @@
           <t>4885140948</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:44:38</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44388.40599537037</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3814,10 +3742,8 @@
           <t>4885088236</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:34:03</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44388.39864583333</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3893,10 +3819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:27:31</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44388.3941087963</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3968,10 +3892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-11 09:20:50</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44388.38946759259</v>
       </c>
       <c r="I48" t="n">
         <v>6</v>
@@ -4047,10 +3969,8 @@
           <t>4884794640</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:22:19</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44388.34883101852</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4118,10 +4038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-11 08:14:38</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44388.34349537037</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4189,10 +4107,8 @@
           <t>4884721104</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:54:58</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44388.32983796296</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4252,10 +4168,8 @@
           <t>4884652756</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:28:40</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44388.31157407408</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4327,10 +4241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:02:00</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44388.29305555556</v>
       </c>
       <c r="I53" t="n">
         <v>3</v>
@@ -4433,10 +4345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:01:29</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44388.29269675926</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4508,10 +4418,8 @@
           <t>4884589709</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:00:14</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44388.2918287037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4575,10 +4483,8 @@
           <t>4884559739</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-11 06:40:21</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44388.27802083334</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4654,10 +4560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-11 06:13:36</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44388.25944444445</v>
       </c>
       <c r="I57" t="n">
         <v>5</v>
@@ -4725,10 +4629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-11 05:50:11</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44388.24318287037</v>
       </c>
       <c r="I58" t="n">
         <v>29</v>
@@ -4796,10 +4698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:59:34</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44388.12469907408</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4867,10 +4767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:39:10</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44388.11053240741</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4938,10 +4836,8 @@
           <t>4884261177</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:27:44</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44388.10259259259</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5005,10 +4901,8 @@
           <t>4884200820</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-11 02:04:22</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44388.08636574074</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5079,10 +4973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:59:25</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44388.08292824074</v>
       </c>
       <c r="I63" t="n">
         <v>3</v>
@@ -5142,10 +5034,8 @@
           <t>4884039941</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:20:01</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44388.05556712963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5213,10 +5103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:10:32</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44388.04898148148</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5292,10 +5180,8 @@
           <t>4884000997</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:07:57</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44388.0471875</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5374,10 +5260,8 @@
           <t>4883990319</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:06:18</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44388.04604166667</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5453,10 +5337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:51:27</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44388.03572916667</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5528,10 +5410,8 @@
           <t>4882896660</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:30:13</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44388.0209837963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5595,10 +5475,8 @@
           <t>4883801343</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:28:21</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44388.0196875</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5674,10 +5552,8 @@
           <t>4883249901</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:12:10</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44388.00844907408</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5745,10 +5621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:10:48</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44388.0075</v>
       </c>
       <c r="I72" t="n">
         <v>6</v>
@@ -5817,10 +5691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:57:09</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.99802083334</v>
       </c>
       <c r="I73" t="n">
         <v>30</v>
@@ -5884,10 +5756,8 @@
           <t>4883249901</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:50:28</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.99337962963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5959,10 +5829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:45:56</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.99023148148</v>
       </c>
       <c r="I75" t="n">
         <v>4</v>
@@ -6034,10 +5902,8 @@
           <t>4882896660</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:45:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.98991898148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6106,10 +5972,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:45:13</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.9897337963</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6185,10 +6049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:44:51</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.98947916667</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6248,10 +6110,8 @@
           <t>4883526409</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:44:38</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.9893287037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6323,10 +6183,8 @@
           <t>4883208650</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:41:30</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.98715277778</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6398,10 +6256,8 @@
           <t>4883208650</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:41:26</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.98710648148</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6473,10 +6329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:30:09</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.97927083333</v>
       </c>
       <c r="I82" t="n">
         <v>18</v>
@@ -6552,10 +6406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:28:31</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.97813657407</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6623,10 +6475,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:19:21</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.97177083333</v>
       </c>
       <c r="I84" t="n">
         <v>7</v>
@@ -6698,10 +6548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:18:40</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.97129629629</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6767,10 +6615,8 @@
           <t>4882896660</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:16:13</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.96959490741</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6838,10 +6684,8 @@
           <t>4883310934</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:15:22</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.96900462963</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6917,10 +6761,8 @@
           <t>4883283422</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:12:18</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.966875</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6992,10 +6834,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:11:44</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.96648148148</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7063,10 +6903,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:08:01</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.96390046296</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7138,10 +6976,8 @@
           <t>4883249901</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:07:52</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.9637962963</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7209,10 +7045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:07:33</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.96357638889</v>
       </c>
       <c r="I92" t="n">
         <v>3</v>
@@ -7280,10 +7114,8 @@
           <t>4883208650</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:05:24</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.96208333333</v>
       </c>
       <c r="I93" t="n">
         <v>8</v>
@@ -7359,10 +7191,8 @@
           <t>4883208650</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:04:06</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.96118055555</v>
       </c>
       <c r="I94" t="n">
         <v>5</v>
@@ -7434,10 +7264,8 @@
           <t>4883208650</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:02:00</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.95972222222</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7509,10 +7337,8 @@
           <t>4883197273</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:59:45</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.95815972222</v>
       </c>
       <c r="I96" t="n">
         <v>5</v>
@@ -7580,10 +7406,8 @@
           <t>4883189448</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:59:44</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.95814814815</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7660,10 +7484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:57:36</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.95666666667</v>
       </c>
       <c r="I98" t="n">
         <v>2</v>
@@ -7731,10 +7553,8 @@
           <t>4883169244</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:56:43</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.95605324074</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7815,10 +7635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:50:08</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.95148148148</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7878,10 +7696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:49:48</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.95125</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7941,10 +7757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:49:21</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.9509375</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8023,10 +7837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:48:44</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.95050925926</v>
       </c>
       <c r="I103" t="n">
         <v>21</v>
@@ -8109,10 +7921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:47:34</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.94969907407</v>
       </c>
       <c r="I104" t="n">
         <v>4</v>
@@ -8172,10 +7982,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:44:38</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.94766203704</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8243,10 +8051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:42:47</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.94637731482</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8310,10 +8116,8 @@
           <t>4883046571</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:39:32</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.94412037037</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8377,10 +8181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:35:26</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.94127314815</v>
       </c>
       <c r="I108" t="n">
         <v>14</v>
@@ -8456,10 +8258,8 @@
           <t>4883001861</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:34:07</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.9403587963</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8535,10 +8335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:26:29</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.93505787037</v>
       </c>
       <c r="I110" t="n">
         <v>13</v>
@@ -8602,10 +8400,8 @@
           <t>4882932885</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:25:38</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.93446759259</v>
       </c>
       <c r="I111" t="n">
         <v>4</v>
@@ -8681,10 +8477,8 @@
           <t>4882935637</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:25:28</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.93435185185</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8752,10 +8546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:24:55</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.9339699074</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8831,10 +8623,8 @@
           <t>4882896660</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:21:03</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.93128472222</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8898,10 +8688,8 @@
           <t>4882855735</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:19:22</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.93011574074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8973,10 +8761,8 @@
           <t>4882864705</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:17:18</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.92868055555</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -9048,10 +8834,8 @@
           <t>4882855735</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:15:36</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.9275</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9119,10 +8903,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:15:26</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.92738425926</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9198,10 +8980,8 @@
           <t>4882843295</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:14:39</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.92684027777</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9272,10 +9052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:14:05</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.92644675926</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9343,10 +9121,8 @@
           <t>4882691261</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:12:18</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.92520833333</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9418,10 +9194,8 @@
           <t>4882824909</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:11:56</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.9249537037</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9485,10 +9259,8 @@
           <t>4882818014</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:11:09</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.92440972223</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9552,10 +9324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:10:46</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.92414351852</v>
       </c>
       <c r="I124" t="n">
         <v>2</v>
@@ -9623,10 +9393,8 @@
           <t>4882816504</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:10:30</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.92395833333</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9694,10 +9462,8 @@
           <t>4882790665</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:06:44</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.92134259259</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9765,10 +9531,8 @@
           <t>4882768398</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:04:46</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.91997685185</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9836,10 +9600,8 @@
           <t>4882352306</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:02:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.91818287037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9907,10 +9669,8 @@
           <t>4882745288</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:01:27</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.91767361111</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9978,10 +9738,8 @@
           <t>4882745288</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:01:11</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.91748842593</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10049,10 +9807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:58:25</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.91556712963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10124,10 +9880,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:57:56</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.91523148148</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10199,10 +9953,8 @@
           <t>4882708510</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:57:48</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.91513888889</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10270,10 +10022,8 @@
           <t>4882708510</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:57:48</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.91513888889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10337,10 +10087,8 @@
           <t>4882565445</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:57:42</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.91506944445</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10408,10 +10156,8 @@
           <t>4882708510</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:56:56</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.91453703704</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10475,10 +10221,8 @@
           <t>4882706574</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:56:09</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.91399305555</v>
       </c>
       <c r="I137" t="n">
         <v>2</v>
@@ -10554,10 +10298,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:55:53</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.91380787037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10621,10 +10363,8 @@
           <t>4882691261</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:54:33</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.91288194444</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10700,10 +10440,8 @@
           <t>4882691261</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:54:02</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.91252314814</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10763,10 +10501,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:53:08</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.91189814815</v>
       </c>
       <c r="I141" t="n">
         <v>4</v>
@@ -10834,10 +10570,8 @@
           <t>4882658607</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:27</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.91003472222</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10911,10 +10645,8 @@
           <t>4882653454</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:49:28</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.90935185185</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10990,10 +10722,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:47:30</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.90798611111</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -11069,10 +10799,8 @@
           <t>4882588298</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:46:20</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.90717592592</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11148,10 +10876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:45:54</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.906875</v>
       </c>
       <c r="I146" t="n">
         <v>56</v>
@@ -11215,10 +10941,8 @@
           <t>4882601955</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:45:47</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.90679398148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11286,10 +11010,8 @@
           <t>4882627216</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:45:38</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.90668981482</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11357,10 +11079,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:44:40</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.90601851852</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11428,10 +11148,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:42:41</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.90464120371</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11503,10 +11221,8 @@
           <t>4882601955</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:42:11</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.90429398148</v>
       </c>
       <c r="I151" t="n">
         <v>1</v>
@@ -11582,10 +11298,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:42:06</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.90423611111</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11657,10 +11371,8 @@
           <t>4882589257</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:41:06</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.90354166667</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11732,10 +11444,8 @@
           <t>4882591154</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:40:52</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.90337962963</v>
       </c>
       <c r="I154" t="n">
         <v>5</v>
@@ -11803,10 +11513,8 @@
           <t>4882588298</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:40:42</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.90326388889</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11878,10 +11586,8 @@
           <t>4882576913</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:39:03</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.90211805556</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11949,10 +11655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:38:33</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.90177083333</v>
       </c>
       <c r="I157" t="n">
         <v>23</v>
@@ -12024,10 +11728,8 @@
           <t>4882541135</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:38:29</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.90172453703</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12103,10 +11805,8 @@
           <t>4882572815</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:38:26</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.90168981482</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12174,10 +11874,8 @@
           <t>4882572296</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:38:14</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.90155092593</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12241,10 +11939,8 @@
           <t>4882565445</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:37:13</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.90084490741</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12320,10 +12016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:36:57</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.90065972223</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12391,10 +12085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:36:39</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.90045138889</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12466,10 +12158,8 @@
           <t>4882558321</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:36:35</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.90040509259</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12546,10 +12236,8 @@
           <t>4882541135</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:36:02</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.90002314815</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12625,10 +12313,8 @@
           <t>4882541135</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:35:21</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.89954861111</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12704,10 +12390,8 @@
           <t>4882541135</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:33:41</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.8983912037</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12783,10 +12467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:33:26</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.89821759259</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12858,10 +12540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:33:07</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.89799768518</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12933,10 +12613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:31:24</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.89680555555</v>
       </c>
       <c r="I170" t="n">
         <v>9</v>
@@ -13012,10 +12690,8 @@
           <t>4882506341</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:38</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.8955787037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13092,10 +12768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:25</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.89542824074</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -13171,10 +12845,8 @@
           <t>4882488110</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:47</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.89359953703</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13242,10 +12914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:07</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.89313657407</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13313,10 +12983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:06</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.893125</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13384,10 +13052,8 @@
           <t>4882475875</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:25:20</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.89259259259</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13463,10 +13129,8 @@
           <t>4882444881</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:21:48</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.89013888889</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13534,10 +13198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:21:14</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.88974537037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13605,10 +13267,8 @@
           <t>4882439711</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:20:53</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.88950231481</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13680,10 +13340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:20:44</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.88939814815</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13751,10 +13409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.88835648148</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13826,10 +13482,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:17:36</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.88722222222</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13901,10 +13555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:17:35</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.88721064815</v>
       </c>
       <c r="I183" t="n">
         <v>33</v>
@@ -13980,10 +13632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:46</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.88594907407</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14047,10 +13697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:45</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.8859375</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14126,10 +13774,8 @@
           <t>4882311795</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:10</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.88414351852</v>
       </c>
       <c r="I186" t="n">
         <v>2</v>
@@ -14206,10 +13852,8 @@
           <t>4882352306</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:38</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.88377314815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14281,10 +13925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:10</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.88344907408</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14352,10 +13994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:00</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.88333333333</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14423,10 +14063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:52</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.88185185185</v>
       </c>
       <c r="I190" t="n">
         <v>4</v>
@@ -14502,10 +14140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:44</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.88175925926</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14569,10 +14205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:22</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.88150462963</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14648,10 +14282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:14</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.88141203704</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14727,10 +14359,8 @@
           <t>4882352306</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:14</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.88141203704</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14798,10 +14428,8 @@
           <t>4882360822</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:07</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.88133101852</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14861,10 +14489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:56</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.88120370371</v>
       </c>
       <c r="I196" t="n">
         <v>4</v>
@@ -14932,10 +14558,8 @@
           <t>4882355360</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:55</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.88119212963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -15003,10 +14627,8 @@
           <t>4882338303</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.88024305556</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15082,10 +14704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:26</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.88016203704</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15161,10 +14781,8 @@
           <t>4882341492</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:22</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.88011574074</v>
       </c>
       <c r="I200" t="n">
         <v>3</v>
@@ -15240,10 +14858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:20</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.88009259259</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15319,10 +14935,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:07</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.87994212963</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15394,10 +15008,8 @@
           <t>4882326809</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:55</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.87980324074</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15473,10 +15085,8 @@
           <t>4882336466</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:45</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.8796875</v>
       </c>
       <c r="I204" t="n">
         <v>6</v>
@@ -15552,10 +15162,8 @@
           <t>4882328445</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:38</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.87960648148</v>
       </c>
       <c r="I205" t="n">
         <v>2</v>
@@ -15623,10 +15231,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:13</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.87931712963</v>
       </c>
       <c r="I206" t="n">
         <v>6</v>
@@ -15686,10 +15292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:10</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.8792824074</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15765,10 +15369,8 @@
           <t>4882328445</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:08</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.87925925926</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15844,10 +15446,8 @@
           <t>4882324885</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:06</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.87923611111</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15923,10 +15523,8 @@
           <t>4882324379</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:53</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.87908564815</v>
       </c>
       <c r="I210" t="n">
         <v>20</v>
@@ -16006,10 +15604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:46</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.87900462963</v>
       </c>
       <c r="I211" t="n">
         <v>25</v>
@@ -16073,10 +15669,8 @@
           <t>4882326809</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:28</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.8787962963</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16152,10 +15746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:23</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.87873842593</v>
       </c>
       <c r="I213" t="n">
         <v>10</v>
@@ -16227,10 +15819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:17</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.87866898148</v>
       </c>
       <c r="I214" t="n">
         <v>103</v>
@@ -16309,10 +15899,8 @@
           <t>4882322730</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:05:12</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.87861111111</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16372,10 +15960,8 @@
           <t>4882319647</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:58</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.87844907407</v>
       </c>
       <c r="I216" t="n">
         <v>6</v>
@@ -16451,10 +16037,8 @@
           <t>4882325040</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:46</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.87831018519</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16530,10 +16114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:18</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.87798611111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16609,10 +16191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:09</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.87788194444</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16688,10 +16268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:51</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.87767361111</v>
       </c>
       <c r="I220" t="n">
         <v>1</v>
@@ -16767,10 +16345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:27</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.87739583333</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16838,10 +16414,8 @@
           <t>4882311795</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:27</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.87739583333</v>
       </c>
       <c r="I222" t="n">
         <v>4</v>
@@ -16917,10 +16491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:26</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.87738425926</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16980,10 +16552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:24</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.87736111111</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17055,10 +16625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:23</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.87734953704</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17130,10 +16698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:23</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.87734953704</v>
       </c>
       <c r="I226" t="n">
         <v>5</v>
@@ -17210,10 +16776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:02</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.87710648148</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17289,10 +16853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:58</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.87706018519</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17357,10 +16919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:54</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.87701388889</v>
       </c>
       <c r="I229" t="n">
         <v>13</v>
@@ -17436,10 +16996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:40</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.87685185186</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17499,10 +17057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:37</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.87681712963</v>
       </c>
       <c r="I231" t="n">
         <v>623</v>
@@ -17574,10 +17130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:29</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.87672453704</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17653,10 +17207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:25</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.87667824074</v>
       </c>
       <c r="I233" t="n">
         <v>9</v>
@@ -17724,10 +17276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:25</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.87667824074</v>
       </c>
       <c r="I234" t="n">
         <v>3</v>
@@ -17810,10 +17360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:22</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.87664351852</v>
       </c>
       <c r="I235" t="n">
         <v>73</v>
@@ -17885,10 +17433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:21</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.87663194445</v>
       </c>
       <c r="I236" t="n">
         <v>271</v>
@@ -17956,10 +17502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:15</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.8765625</v>
       </c>
       <c r="I237" t="n">
         <v>14</v>
@@ -18035,10 +17579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:02:14</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.87655092592</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18114,10 +17656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:59</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.87637731482</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18189,10 +17729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:53</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.87630787037</v>
       </c>
       <c r="I240" t="n">
         <v>22</v>
